--- a/6 新版工具/6.7/每次提交后状态.xlsx
+++ b/6 新版工具/6.7/每次提交后状态.xlsx
@@ -3268,7 +3268,7 @@
         <v>93</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -3535,7 +3535,7 @@
         <v>114</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3579,7 +3579,7 @@
         <v>117</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -4307,7 +4307,7 @@
         <v>157</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4439,7 +4439,7 @@
         <v>164</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -4577,7 +4577,7 @@
         <v>171</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -4624,7 +4624,7 @@
         <v>173</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -4900,7 +4900,7 @@
         <v>189</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4947,7 +4947,7 @@
         <v>192</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -4991,7 +4991,7 @@
         <v>195</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -5085,7 +5085,7 @@
         <v>199</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -5446,7 +5446,7 @@
         <v>216</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -5534,7 +5534,7 @@
         <v>223</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -5578,7 +5578,7 @@
         <v>225</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -5622,7 +5622,7 @@
         <v>227</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -5666,7 +5666,7 @@
         <v>229</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -6458,7 +6458,7 @@
         <v>268</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -6813,7 +6813,7 @@
         <v>296</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -7737,7 +7737,7 @@
         <v>345</v>
       </c>
       <c r="O120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -7781,7 +7781,7 @@
         <v>347</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -7825,7 +7825,7 @@
         <v>349</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -8089,7 +8089,7 @@
         <v>361</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -8262,7 +8262,7 @@
         <v>370</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -8919,7 +8919,7 @@
         <v>402</v>
       </c>
       <c r="O147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -8963,7 +8963,7 @@
         <v>404</v>
       </c>
       <c r="O148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -9051,7 +9051,7 @@
         <v>410</v>
       </c>
       <c r="O150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:15">
@@ -9095,7 +9095,7 @@
         <v>412</v>
       </c>
       <c r="O151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:15">
@@ -9139,7 +9139,7 @@
         <v>414</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -9649,7 +9649,7 @@
         <v>23</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -10341,7 +10341,7 @@
         <v>473</v>
       </c>
       <c r="O180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:15">
@@ -11015,7 +11015,7 @@
         <v>23</v>
       </c>
       <c r="O196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:15">
@@ -11411,7 +11411,7 @@
         <v>526</v>
       </c>
       <c r="O205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:15">
@@ -11455,7 +11455,7 @@
         <v>528</v>
       </c>
       <c r="O206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:15">
@@ -11499,7 +11499,7 @@
         <v>530</v>
       </c>
       <c r="O207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:15">
@@ -12056,7 +12056,7 @@
         <v>559</v>
       </c>
       <c r="O220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:15">
@@ -12320,7 +12320,7 @@
         <v>573</v>
       </c>
       <c r="O226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:15">
@@ -12452,7 +12452,7 @@
         <v>579</v>
       </c>
       <c r="O229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:15">
@@ -12716,7 +12716,7 @@
         <v>592</v>
       </c>
       <c r="O235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:15">
@@ -12845,7 +12845,7 @@
         <v>598</v>
       </c>
       <c r="O238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:15">
@@ -12889,7 +12889,7 @@
         <v>600</v>
       </c>
       <c r="O239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:15">
@@ -12933,7 +12933,7 @@
         <v>602</v>
       </c>
       <c r="O240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:15">
@@ -13021,7 +13021,7 @@
         <v>606</v>
       </c>
       <c r="O242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:15">
@@ -13244,7 +13244,7 @@
         <v>618</v>
       </c>
       <c r="O247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:15">
@@ -13508,7 +13508,7 @@
         <v>633</v>
       </c>
       <c r="O253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:15">
@@ -13640,7 +13640,7 @@
         <v>641</v>
       </c>
       <c r="O256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:15">
